--- a/data/trans_orig/Q02D_LAB-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q02D_LAB-Clase-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Tiempo dedicado de lunes a viernes al cuidado de las personas del hogar que lo necesitan por parte de la persona entrevistada</t>
+          <t>Número medio de horas diarias, de lunes a viernes, que dedica la persona entrevistada a cuidar a las personas del hogar que lo necesitan</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,52; 3,54</t>
+          <t>2,48; 3,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,56; 4,58</t>
+          <t>3,53; 4,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,47; 6,07</t>
+          <t>4,56; 6,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,16; 10,09</t>
+          <t>5,24; 10,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,97; 5,57</t>
+          <t>4,08; 5,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,59; 6,86</t>
+          <t>5,62; 6,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,48; 9,61</t>
+          <t>7,53; 9,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,44; 9,24</t>
+          <t>6,45; 9,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,39; 4,32</t>
+          <t>3,32; 4,24</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,77; 5,61</t>
+          <t>4,77; 5,63</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,5; 7,88</t>
+          <t>6,43; 7,86</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,26; 8,8</t>
+          <t>6,35; 9,0</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,55; 3,76</t>
+          <t>2,56; 3,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,0; 5,2</t>
+          <t>3,95; 5,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,27; 6,81</t>
+          <t>5,25; 6,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,93; 5,31</t>
+          <t>2,99; 5,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,94; 6,53</t>
+          <t>4,93; 6,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,13; 7,32</t>
+          <t>6,18; 7,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,03; 9,94</t>
+          <t>8,1; 10,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,73; 11,63</t>
+          <t>6,74; 11,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,17; 5,31</t>
+          <t>4,18; 5,29</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,33; 6,21</t>
+          <t>5,31; 6,22</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,04; 8,45</t>
+          <t>7,11; 8,39</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,52; 9,26</t>
+          <t>5,58; 9,31</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,81; 4,26</t>
+          <t>2,84; 4,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,6; 5,73</t>
+          <t>4,55; 5,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,78; 7,84</t>
+          <t>5,81; 7,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,68; 11,02</t>
+          <t>4,58; 10,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,01; 6,13</t>
+          <t>4,09; 6,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,21; 6,63</t>
+          <t>5,22; 6,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,97; 8,87</t>
+          <t>6,0; 8,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,93; 14,59</t>
+          <t>6,97; 14,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,4; 4,65</t>
+          <t>3,41; 4,76</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,02; 5,85</t>
+          <t>4,99; 5,81</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,04; 7,71</t>
+          <t>6,01; 7,7</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,69; 10,88</t>
+          <t>5,6; 10,51</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,36; 4,53</t>
+          <t>3,38; 4,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,37; 5,16</t>
+          <t>4,38; 5,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,19; 7,62</t>
+          <t>6,17; 7,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,64; 6,94</t>
+          <t>4,57; 7,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,3; 6,86</t>
+          <t>5,27; 6,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,35; 7,24</t>
+          <t>6,33; 7,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,38; 9,77</t>
+          <t>8,4; 9,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,51; 9,78</t>
+          <t>7,58; 9,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,54; 5,51</t>
+          <t>4,53; 5,5</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,54; 6,17</t>
+          <t>5,57; 6,14</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,61; 8,61</t>
+          <t>7,59; 8,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,4; 8,19</t>
+          <t>6,42; 8,18</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,6; 7,01</t>
+          <t>3,49; 6,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,65; 5,96</t>
+          <t>4,61; 5,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,36; 7,6</t>
+          <t>5,22; 7,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,64; 9,8</t>
+          <t>4,61; 9,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,65; 7,4</t>
+          <t>5,67; 7,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,15; 7,06</t>
+          <t>6,19; 7,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,98; 8,56</t>
+          <t>7,05; 8,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,57; 8,32</t>
+          <t>6,59; 8,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,3; 6,85</t>
+          <t>5,35; 6,83</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,88; 6,62</t>
+          <t>5,87; 6,64</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,61; 7,82</t>
+          <t>6,63; 7,88</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,36; 8,02</t>
+          <t>6,38; 8,09</t>
         </is>
       </c>
     </row>
@@ -1424,47 +1424,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,27; 9,3</t>
+          <t>2,54; 9,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,51; 3,88</t>
+          <t>1,5; 3,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,88; 4,54</t>
+          <t>2,87; 4,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,0; 9,64</t>
+          <t>2,0; 8,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,34; 6,88</t>
+          <t>5,42; 6,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,27; 7,27</t>
+          <t>6,26; 7,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,44; 9,49</t>
+          <t>7,48; 9,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,73; 8,09</t>
+          <t>4,82; 7,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,24; 6,79</t>
+          <t>5,34; 6,69</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,15; 8,94</t>
+          <t>7,11; 8,94</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,43; 7,49</t>
+          <t>4,42; 7,5</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,35; 4,01</t>
+          <t>3,34; 4,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,5; 4,96</t>
+          <t>4,51; 4,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,84; 6,65</t>
+          <t>5,88; 6,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,06; 6,94</t>
+          <t>5,1; 6,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,48; 6,17</t>
+          <t>5,49; 6,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,37; 6,8</t>
+          <t>6,41; 6,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,07; 8,82</t>
+          <t>8,11; 8,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,09; 8,28</t>
+          <t>7,07; 8,27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,71; 5,24</t>
+          <t>4,74; 5,25</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,69; 6,02</t>
+          <t>5,7; 6,03</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7,28; 7,84</t>
+          <t>7,29; 7,83</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,52; 7,54</t>
+          <t>6,49; 7,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q02D_LAB-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q02D_LAB-Clase-trans_orig.xlsx
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
